--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -4403,7 +4403,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T35" s="59" t="inlineStr"/>
+      <c r="T35" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U35" s="56" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -4106,7 +4106,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X34" s="26" t="inlineStr"/>
+      <c r="X34" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y34" s="18" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1158,7 +1158,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W5" s="14" t="inlineStr"/>
+      <c r="W5" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X5" s="26" t="inlineStr"/>
       <c r="Y5" s="18" t="inlineStr">
         <is>
@@ -1483,7 +1487,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W8" s="14" t="inlineStr"/>
+      <c r="W8" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X8" s="19" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1922,7 +1930,11 @@
       <c r="T13" s="28" t="inlineStr"/>
       <c r="U13" s="17" t="inlineStr"/>
       <c r="V13" s="26" t="inlineStr"/>
-      <c r="W13" s="14" t="inlineStr"/>
+      <c r="W13" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X13" s="26" t="inlineStr"/>
       <c r="Y13" s="14" t="inlineStr"/>
       <c r="Z13" s="26" t="inlineStr"/>
@@ -2361,7 +2373,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N17" s="27" t="inlineStr"/>
+      <c r="N17" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O17" s="16" t="inlineStr"/>
       <c r="P17" s="28" t="inlineStr"/>
       <c r="Q17" s="17" t="inlineStr"/>
@@ -2374,7 +2390,11 @@
       <c r="T17" s="28" t="inlineStr"/>
       <c r="U17" s="17" t="inlineStr"/>
       <c r="V17" s="26" t="inlineStr"/>
-      <c r="W17" s="14" t="inlineStr"/>
+      <c r="W17" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X17" s="26" t="inlineStr"/>
       <c r="Y17" s="18" t="inlineStr">
         <is>
@@ -2564,7 +2584,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W19" s="14" t="inlineStr"/>
+      <c r="W19" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X19" s="26" t="inlineStr"/>
       <c r="Y19" s="18" t="inlineStr">
         <is>
@@ -2687,7 +2711,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W20" s="14" t="inlineStr"/>
+      <c r="W20" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X20" s="26" t="inlineStr"/>
       <c r="Y20" s="14" t="inlineStr"/>
       <c r="Z20" s="26" t="inlineStr"/>
@@ -2802,7 +2830,11 @@
         </is>
       </c>
       <c r="V21" s="26" t="inlineStr"/>
-      <c r="W21" s="14" t="inlineStr"/>
+      <c r="W21" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X21" s="19" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3305,7 +3337,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W26" s="14" t="inlineStr"/>
+      <c r="W26" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X26" s="19" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3542,7 +3578,11 @@
         </is>
       </c>
       <c r="U28" s="17" t="inlineStr"/>
-      <c r="V28" s="26" t="inlineStr"/>
+      <c r="V28" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W28" s="14" t="inlineStr"/>
       <c r="X28" s="26" t="inlineStr"/>
       <c r="Y28" s="14" t="inlineStr"/>
@@ -3919,7 +3959,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W32" s="14" t="inlineStr"/>
+      <c r="W32" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X32" s="19" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3990,7 +4034,11 @@
       <c r="T33" s="28" t="inlineStr"/>
       <c r="U33" s="17" t="inlineStr"/>
       <c r="V33" s="26" t="inlineStr"/>
-      <c r="W33" s="14" t="inlineStr"/>
+      <c r="W33" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X33" s="26" t="inlineStr"/>
       <c r="Y33" s="14" t="inlineStr"/>
       <c r="Z33" s="26" t="inlineStr"/>
@@ -4433,13 +4481,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N37" s="27" t="inlineStr"/>
+      <c r="N37" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O37" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="P37" s="28" t="inlineStr"/>
+      <c r="P37" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q37" s="25" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4455,15 +4511,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T37" s="28" t="inlineStr"/>
+      <c r="T37" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U37" s="25" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="V37" s="26" t="inlineStr"/>
-      <c r="W37" s="14" t="inlineStr"/>
-      <c r="X37" s="26" t="inlineStr"/>
+      <c r="V37" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="W37" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="X37" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y37" s="18" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -4404,7 +4404,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X36" s="26" t="inlineStr"/>
+      <c r="X36" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y36" s="18" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1290,7 +1290,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X6" s="26" t="inlineStr"/>
+      <c r="X6" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y6" s="18" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4024,7 +4028,11 @@
       </c>
       <c r="O33" s="16" t="inlineStr"/>
       <c r="P33" s="28" t="inlineStr"/>
-      <c r="Q33" s="17" t="inlineStr"/>
+      <c r="Q33" s="25" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R33" s="28" t="inlineStr"/>
       <c r="S33" s="25" t="inlineStr">
         <is>
@@ -4414,7 +4422,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z36" s="26" t="inlineStr"/>
+      <c r="Z36" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA36" s="18" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1163,7 +1163,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X5" s="26" t="inlineStr"/>
+      <c r="X5" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y5" s="18" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2593,7 +2597,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X19" s="26" t="inlineStr"/>
+      <c r="X19" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y19" s="18" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2720,7 +2728,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X20" s="26" t="inlineStr"/>
+      <c r="X20" s="19" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y20" s="14" t="inlineStr"/>
       <c r="Z20" s="26" t="inlineStr"/>
       <c r="AA20" s="18" t="inlineStr">
@@ -2965,7 +2977,11 @@
       </c>
       <c r="Y22" s="14" t="inlineStr"/>
       <c r="Z22" s="26" t="inlineStr"/>
-      <c r="AA22" s="14" t="inlineStr"/>
+      <c r="AA22" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="2" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +469,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2108,7 +2108,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z12" s="57" t="inlineStr"/>
+      <c r="Z12" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA12" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3960,7 +3964,11 @@
         </is>
       </c>
       <c r="Z29" s="57" t="inlineStr"/>
-      <c r="AA29" s="45" t="inlineStr"/>
+      <c r="AA29" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -3606,7 +3606,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z26" s="57" t="inlineStr"/>
+      <c r="Z26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA26" s="49" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -4554,7 +4554,11 @@
       </c>
       <c r="Y35" s="45" t="inlineStr"/>
       <c r="Z35" s="57" t="inlineStr"/>
-      <c r="AA35" s="45" t="inlineStr"/>
+      <c r="AA35" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -3731,7 +3731,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X27" s="57" t="inlineStr"/>
+      <c r="X27" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y27" s="45" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2166,7 +2166,11 @@
       </c>
       <c r="O13" s="47" t="inlineStr"/>
       <c r="P13" s="59" t="inlineStr"/>
-      <c r="Q13" s="48" t="inlineStr"/>
+      <c r="Q13" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R13" s="59" t="inlineStr"/>
       <c r="S13" s="48" t="inlineStr"/>
       <c r="T13" s="59" t="inlineStr"/>
@@ -2622,7 +2626,11 @@
       </c>
       <c r="O17" s="47" t="inlineStr"/>
       <c r="P17" s="59" t="inlineStr"/>
-      <c r="Q17" s="48" t="inlineStr"/>
+      <c r="Q17" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R17" s="59" t="inlineStr"/>
       <c r="S17" s="56" t="inlineStr">
         <is>
@@ -2693,7 +2701,11 @@
       </c>
       <c r="O18" s="47" t="inlineStr"/>
       <c r="P18" s="59" t="inlineStr"/>
-      <c r="Q18" s="48" t="inlineStr"/>
+      <c r="Q18" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R18" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3930,7 +3942,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q29" s="48" t="inlineStr"/>
+      <c r="Q29" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R29" s="55" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1272,7 +1272,11 @@
         </is>
       </c>
       <c r="Y4" s="45" t="inlineStr"/>
-      <c r="Z4" s="57" t="inlineStr"/>
+      <c r="Z4" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA4" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2310,7 +2314,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z14" s="57" t="inlineStr"/>
+      <c r="Z14" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA14" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3835,7 +3843,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q28" s="48" t="inlineStr"/>
+      <c r="Q28" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R28" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4112,7 +4124,11 @@
       <c r="N31" s="58" t="inlineStr"/>
       <c r="O31" s="47" t="inlineStr"/>
       <c r="P31" s="59" t="inlineStr"/>
-      <c r="Q31" s="48" t="inlineStr"/>
+      <c r="Q31" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R31" s="55" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1538,7 +1538,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z6" s="57" t="inlineStr"/>
+      <c r="Z6" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA6" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1744,7 +1748,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z8" s="57" t="inlineStr"/>
+      <c r="Z8" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA8" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1938,7 +1946,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z10" s="57" t="inlineStr"/>
+      <c r="Z10" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA10" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2449,7 +2461,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="Z15" s="57" t="inlineStr"/>
+      <c r="Z15" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA15" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2556,7 +2572,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V16" s="57" t="inlineStr"/>
+      <c r="V16" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W16" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2988,7 +3008,11 @@
         </is>
       </c>
       <c r="Y20" s="45" t="inlineStr"/>
-      <c r="Z20" s="57" t="inlineStr"/>
+      <c r="Z20" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA20" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3495,7 +3519,11 @@
         </is>
       </c>
       <c r="Y25" s="45" t="inlineStr"/>
-      <c r="Z25" s="57" t="inlineStr"/>
+      <c r="Z25" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA25" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3761,7 +3789,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="Z27" s="57" t="inlineStr"/>
+      <c r="Z27" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA27" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4272,7 +4304,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z32" s="57" t="inlineStr"/>
+      <c r="Z32" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA32" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4855,7 +4891,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z37" s="57" t="inlineStr"/>
+      <c r="Z37" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA37" s="49" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2881,7 +2881,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z19" s="57" t="inlineStr"/>
+      <c r="Z19" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA19" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3254,7 +3258,11 @@
         </is>
       </c>
       <c r="Y22" s="45" t="inlineStr"/>
-      <c r="Z22" s="57" t="inlineStr"/>
+      <c r="Z22" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA22" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3905,7 +3913,11 @@
       <c r="X28" s="57" t="inlineStr"/>
       <c r="Y28" s="45" t="inlineStr"/>
       <c r="Z28" s="57" t="inlineStr"/>
-      <c r="AA28" s="45" t="inlineStr"/>
+      <c r="AA28" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2692,7 +2692,11 @@
         </is>
       </c>
       <c r="C18" s="45" t="inlineStr"/>
-      <c r="D18" s="57" t="inlineStr"/>
+      <c r="D18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E18" s="49" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -4518,7 +4518,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z34" s="57" t="inlineStr"/>
+      <c r="Z34" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA34" s="49" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2659,13 +2659,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="R17" s="59" t="inlineStr"/>
+      <c r="R17" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S17" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T17" s="59" t="inlineStr"/>
+      <c r="T17" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U17" s="48" t="inlineStr"/>
       <c r="V17" s="57" t="inlineStr"/>
       <c r="W17" s="49" t="inlineStr">
@@ -2680,7 +2688,11 @@
         </is>
       </c>
       <c r="Z17" s="57" t="inlineStr"/>
-      <c r="AA17" s="45" t="inlineStr"/>
+      <c r="AA17" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2697,7 +2697,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="45" t="inlineStr"/>
+      <c r="C18" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D18" s="50" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2713,8 +2717,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G18" s="45" t="inlineStr"/>
-      <c r="H18" s="60" t="inlineStr"/>
+      <c r="G18" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H18" s="51" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I18" s="52" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2737,8 +2749,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="O18" s="47" t="inlineStr"/>
-      <c r="P18" s="59" t="inlineStr"/>
+      <c r="O18" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="P18" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q18" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2754,11 +2774,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T18" s="59" t="inlineStr"/>
-      <c r="U18" s="48" t="inlineStr"/>
-      <c r="V18" s="57" t="inlineStr"/>
-      <c r="W18" s="45" t="inlineStr"/>
-      <c r="X18" s="57" t="inlineStr"/>
+      <c r="T18" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U18" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="V18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="W18" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="X18" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y18" s="45" t="inlineStr"/>
       <c r="Z18" s="57" t="inlineStr"/>
       <c r="AA18" s="49" t="inlineStr">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -1401,7 +1401,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Z5" s="57" t="inlineStr"/>
+      <c r="Z5" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="AA5" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1604,7 +1608,11 @@
       <c r="P7" s="59" t="inlineStr"/>
       <c r="Q7" s="48" t="inlineStr"/>
       <c r="R7" s="59" t="inlineStr"/>
-      <c r="S7" s="48" t="inlineStr"/>
+      <c r="S7" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T7" s="59" t="inlineStr"/>
       <c r="U7" s="48" t="inlineStr"/>
       <c r="V7" s="57" t="inlineStr"/>
@@ -1614,7 +1622,11 @@
         </is>
       </c>
       <c r="X7" s="57" t="inlineStr"/>
-      <c r="Y7" s="45" t="inlineStr"/>
+      <c r="Y7" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Z7" s="57" t="inlineStr"/>
       <c r="AA7" s="45" t="inlineStr"/>
     </row>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Agustus 2021 - 3 Oktober 2021).xlsx
@@ -2766,11 +2766,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P18" s="55" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="P18" s="59" t="inlineStr"/>
       <c r="Q18" s="56" t="inlineStr">
         <is>
           <t>ü</t>
